--- a/bike+sharing+dataset/day-excel.xlsx
+++ b/bike+sharing+dataset/day-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M3MO\Desktop\Szymek\CodeProjects\Master_Diploma\bike+sharing+dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63145795-6CE8-4372-B9DB-EDA41A3D9561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE5075-8D25-4D04-BBCA-D15D5ACD1347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day-excel" sheetId="1" r:id="rId1"/>
@@ -3678,9 +3678,6 @@
     <t>Winter</t>
   </si>
   <si>
-    <t>Clear, Few clouds, Partly cloudy, Partly cloudy</t>
-  </si>
-  <si>
     <t>Mist + Cloudy, Mist + Broken clouds, Mist + Few clouds, Mist</t>
   </si>
   <si>
@@ -3768,12 +3765,6 @@
     <t>Days count of standard days</t>
   </si>
   <si>
-    <t>Holidays</t>
-  </si>
-  <si>
-    <t>Standard days</t>
-  </si>
-  <si>
     <t>Holiday count of rentals</t>
   </si>
   <si>
@@ -3799,6 +3790,15 @@
   </si>
   <si>
     <t>holidays factor</t>
+  </si>
+  <si>
+    <t>Clear, Few clouds, Partly cloudy</t>
+  </si>
+  <si>
+    <t>Holidays factor</t>
+  </si>
+  <si>
+    <t>Standard days factor</t>
   </si>
 </sst>
 </file>
@@ -4550,18 +4550,10 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5479,7 +5471,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Clear, Few clouds, Partly cloudy, Partly cloudy</c:v>
+                  <c:v>Clear, Few clouds, Partly cloudy</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Mist + Cloudy, Mist + Broken clouds, Mist + Few clouds, Mist</c:v>
@@ -6508,25 +6500,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>444027</c:v>
+                  <c:v>455503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455503</c:v>
+                  <c:v>469109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>469109</c:v>
+                  <c:v>473048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>473048</c:v>
+                  <c:v>485395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>485395</c:v>
+                  <c:v>487790</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>487790</c:v>
+                  <c:v>477807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>477807</c:v>
+                  <c:v>444027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7148,10 +7140,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Holidays</c:v>
+                  <c:v>Holidays factor</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Standard days</c:v>
+                  <c:v>Standard days factor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12152,13 +12144,13 @@
       <xdr:col>51</xdr:col>
       <xdr:colOff>385762</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>132510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>80962</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>18210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12593,14 +12585,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="AR43" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="AX62" sqref="AX62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -12612,14 +12604,14 @@
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.7109375" customWidth="1"/>
+    <col min="24" max="24" width="35.85546875" customWidth="1"/>
     <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
@@ -12687,7 +12679,7 @@
         <v>1204</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>1205</v>
@@ -12699,16 +12691,16 @@
         <v>1207</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12772,49 +12764,49 @@
         <v>1243103</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="W2">
         <f>W8/W5</f>
         <v>4584.82</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>1212</v>
+        <v>1250</v>
       </c>
       <c r="Y2">
         <f>SUMIF(I2:I732,1,P2:P732)</f>
         <v>2257952</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AA2">
         <f>SUMIF($E$2:$E$732,1,$P$2:$P$732)</f>
         <v>134933</v>
       </c>
       <c r="AB2" s="22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AC2">
-        <f>SUMIF(G2:G732,0,P2:P732)</f>
-        <v>444027</v>
+        <f>SUMIF(G2:G732,1,P2:P732)</f>
+        <v>455503</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AE2">
         <f>SUM(O2:O732)</f>
         <v>2672662</v>
       </c>
       <c r="AI2" s="32" t="s">
-        <v>1242</v>
+        <v>1251</v>
       </c>
       <c r="AJ2">
         <f>AI8/AI6</f>
         <v>3735</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12878,49 +12870,49 @@
         <v>2049576</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="W3">
         <f>W9/W6</f>
         <v>4330.1688311688313</v>
       </c>
       <c r="X3" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Y3">
         <f>SUMIF(I2:I732,2,P2:P732)</f>
         <v>996858</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AA3">
         <f>SUMIF($E$2:$E$732,2,$P$2:$P$732)</f>
         <v>151352</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AC3">
-        <f>SUMIF(G2:G732,1,P2:P732)</f>
-        <v>455503</v>
+        <f>SUMIF(G2:G732,2,P2:P732)</f>
+        <v>469109</v>
       </c>
       <c r="AD3" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AE3">
         <f>SUM(N2:N732)</f>
         <v>620017</v>
       </c>
       <c r="AI3" s="33" t="s">
-        <v>1243</v>
+        <v>1252</v>
       </c>
       <c r="AJ3">
         <f>AJ8/AJ6</f>
         <v>4527.1042253521127</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12977,28 +12969,28 @@
         <v>841613</v>
       </c>
       <c r="X4" s="36" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y4">
         <f>SUMIF(I2:I732,3,P2:P732)</f>
         <v>37869</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AA4">
         <f>SUMIF($E$2:$E$732,3,$P$2:$P$732)</f>
         <v>228920</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AC4">
-        <f>SUMIF(G2:G732,2,P2:P732)</f>
-        <v>469109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+        <f>SUMIF(G2:G732,3,P2:P732)</f>
+        <v>473048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13059,38 +13051,38 @@
         <v>806473</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="W5">
         <f>COUNTIF(H2:H732,1)</f>
         <v>500</v>
       </c>
       <c r="X5" s="37" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Y5">
         <f>SUMIF(I2:I732,4,P2:P732)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AA5">
         <f>SUMIF($E$2:$E$732,4,$P$2:$P$732)</f>
         <v>269094</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AC5">
-        <f>SUMIF(G2:G732,3,P2:P732)</f>
-        <v>473048</v>
+        <f>SUMIF(G2:G732,4,P2:P732)</f>
+        <v>485395</v>
       </c>
       <c r="AI5" s="31" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AJ5" s="31" t="s">
         <v>1240</v>
-      </c>
-      <c r="AJ5" s="31" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -13147,25 +13139,25 @@
         <v>154.14068418905532</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="W6">
         <f>COUNTIF(H2:H732,0)</f>
         <v>231</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AA6">
         <f>SUMIF($E$2:$E$732,5,$P$2:$P$732)</f>
         <v>331686</v>
       </c>
       <c r="AB6" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AC6">
-        <f>SUMIF(G2:G732,4,P2:P732)</f>
-        <v>485395</v>
+        <f>SUMIF(G2:G732,5,P2:P732)</f>
+        <v>487790</v>
       </c>
       <c r="AI6">
         <f>COUNTIF(F2:F732,1)</f>
@@ -13226,24 +13218,24 @@
         <v>1606</v>
       </c>
       <c r="Z7" s="16" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AA7">
         <f>SUMIF($E$2:$E$732,6,$P$2:$P$732)</f>
         <v>346342</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AC7">
-        <f>SUMIF(G2:G732,5,P2:P732)</f>
-        <v>487790</v>
+        <f>SUMIF(G2:G732,6,P2:P732)</f>
+        <v>477807</v>
       </c>
       <c r="AI7" s="31" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="AJ7" s="31" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -13296,25 +13288,25 @@
         <v>1510</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="W8">
         <f>SUMIF(H2:H732,1,P2:P732)</f>
         <v>2292410</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AA8">
         <f>SUMIF($E$2:$E$732,7,$P$2:$P$732)</f>
         <v>344948</v>
       </c>
       <c r="AB8" s="28" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AC8">
-        <f>SUMIF(G2:G732,6,P2:P732)</f>
-        <v>477807</v>
+        <f>SUMIF(G2:G732,0,P2:P732)</f>
+        <v>444027</v>
       </c>
       <c r="AI8">
         <f>SUMIF(F2:F732,1,P2:P732)</f>
@@ -13375,14 +13367,14 @@
         <v>959</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="W9">
         <f>SUMIF(H2:H732,0,P2:P732)</f>
         <v>1000269</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AA9">
         <f>SUMIF($E$2:$E$732,8,$P$2:$P$732)</f>
@@ -13440,7 +13432,7 @@
         <v>822</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AA10">
         <f>SUMIF($E$2:$E$732,9,$P$2:$P$732)</f>
@@ -13498,7 +13490,7 @@
         <v>1321</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AA11">
         <f>SUMIF($E$2:$E$732,10,$P$2:$P$732)</f>
@@ -13556,7 +13548,7 @@
         <v>1263</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AA12">
         <f>SUMIF($E$2:$E$732,11,$P$2:$P$732)</f>
@@ -13614,7 +13606,7 @@
         <v>1162</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AA13">
         <f>SUMIF($E$2:$E$732,12,$P$2:$P$732)</f>
